--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMaguire/Dropbox/Jack Maguire/00. NEA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD398E1F-DE4F-BD47-88C5-8FBA3A6F75C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157A3AE2-7127-BA49-A348-0FB157EB5AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{276A8A55-9308-014C-B349-D858988AF41C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t>Test Section</t>
   </si>
@@ -164,16 +164,7 @@
     <t>Enemy pathfinding</t>
   </si>
   <si>
-    <t>Let the turrets shoot the enemies</t>
-  </si>
-  <si>
     <t>The enemies get shot, and if that shot is more damage than they have health remaining - they die instantly.</t>
-  </si>
-  <si>
-    <t>Enemy death - Light enemies</t>
-  </si>
-  <si>
-    <t>Enemy death - Heavy enemies</t>
   </si>
   <si>
     <t>^</t>
@@ -228,10 +219,119 @@
     <t>Timestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">Run the program - does </t>
-  </si>
-  <si>
     <t>The window should show, with correct size (fullscreen) and title</t>
+  </si>
+  <si>
+    <t>Run the program - does the main window 
+show</t>
+  </si>
+  <si>
+    <t>Look at the window - does the turretFrame
+show</t>
+  </si>
+  <si>
+    <t>Look at the window - does the canvas
+show</t>
+  </si>
+  <si>
+    <t>Look at the turretFrame - is the status 
+part showing correct values</t>
+  </si>
+  <si>
+    <t>Look at the turretFrame - 
+are the buttons there</t>
+  </si>
+  <si>
+    <t>Look and interact with the turretFrame - 
+do the buttons work</t>
+  </si>
+  <si>
+    <t>Run the program - look at it, are the details of the results expected working.</t>
+  </si>
+  <si>
+    <t>Run the program, and use the UI to buy 
+a turret</t>
+  </si>
+  <si>
+    <t>Let the turrets shoot the enemies. NB: A 
+light enemy is an enemy that can be killed in one hit, such as a skeleton.</t>
+  </si>
+  <si>
+    <t>^ NB: A heavy enemy is an enemy that has 
+to take multiple hits to kill, such as a thug.</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Enemy Aura</t>
+  </si>
+  <si>
+    <t>Buy a turret, hover over one of its bullets.</t>
+  </si>
+  <si>
+    <t>An aura should appear over the enemy it is targeting</t>
+  </si>
+  <si>
+    <t>Replay - Yes</t>
+  </si>
+  <si>
+    <t>Shut the window, click yes on the replay 
+window.</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>A JOptionPane will appear asking to play again, and if you say yes, it will restart the 
+level.</t>
+  </si>
+  <si>
+    <t>Replay - Cancel</t>
+  </si>
+  <si>
+    <t>shut the window, click cancel on the replay 
+window.</t>
+  </si>
+  <si>
+    <t>The JOptionPane will appear, and I will say no. It should exit the program (shown by IntelliJ's console, and it's lack of stop button).</t>
+  </si>
+  <si>
+    <t>Enemy damaged - Light enemies</t>
+  </si>
+  <si>
+    <t>Enemy damaged - Heavy enemies</t>
+  </si>
+  <si>
+    <t>Replay - No</t>
+  </si>
+  <si>
+    <t>^, but pressing no</t>
+  </si>
+  <si>
+    <t>Buy more turrets than money</t>
+  </si>
+  <si>
+    <t>Buy more turrets, then, once money is low, continue trying to buy more.</t>
+  </si>
+  <si>
+    <t>An error message appears, detailing that there is not enough money left for that turret.</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Debugger Pathfinding - Enemy</t>
+  </si>
+  <si>
+    <t>Open the debugger, with breakpoints at 
+the part of the enemy where it decides how to get to the next square.</t>
+  </si>
+  <si>
+    <t>This will demonstrate how the dynamically generated data is used, for pathfinding.</t>
   </si>
 </sst>
 </file>
@@ -267,11 +367,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,10 +395,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CCD0A1C-E289-DA40-AE1F-16AD9D0EC392}" name="Table1" displayName="Table1" ref="A1:G20" totalsRowShown="0">
-  <autoFilter ref="A1:G20" xr:uid="{DD92B141-73E0-F14E-9D99-5542DE604761}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
-    <sortCondition ref="A1:A19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CCD0A1C-E289-DA40-AE1F-16AD9D0EC392}" name="Table1" displayName="Table1" ref="A1:G26" totalsRowShown="0">
+  <autoFilter ref="A1:G26" xr:uid="{DD92B141-73E0-F14E-9D99-5542DE604761}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
+    <sortCondition ref="A1:A21"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{6D368296-DEF1-AC4F-AC2D-BC0D8EF60AD3}" name="Test Section"/>
@@ -609,17 +710,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90AA3FB-0B7A-AE48-ACBC-90A0F0B5C594}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="36.5" customWidth="1"/>
     <col min="5" max="5" width="71" customWidth="1"/>
   </cols>
@@ -644,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -655,14 +756,18 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -672,11 +777,18 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -686,13 +798,20 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -700,11 +819,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -714,11 +840,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -728,11 +861,18 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -744,8 +884,14 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
@@ -758,8 +904,14 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -778,6 +930,9 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -795,6 +950,9 @@
       <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -812,6 +970,9 @@
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -829,124 +990,265 @@
       <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B14">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B15">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16">
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17">
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18">
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19">
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20">
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>47</v>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
